--- a/target/tangsel/Analisis_Produktivitas_Tangsel.xlsx
+++ b/target/tangsel/Analisis_Produktivitas_Tangsel.xlsx
@@ -539,28 +539,28 @@
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>29</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>44.62</v>
+        <v>44.43</v>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
@@ -583,28 +583,28 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>101</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>44.48</v>
+        <v>44.02</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
@@ -630,25 +630,25 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>44.53</v>
+        <v>44.06</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
@@ -671,28 +671,28 @@
         </is>
       </c>
       <c r="D5" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>43.79</v>
+        <v>43.42</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
@@ -715,28 +715,28 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>26</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>43.6</v>
+        <v>43.65</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
@@ -759,28 +759,28 @@
         </is>
       </c>
       <c r="D7" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>23</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>43.42</v>
+        <v>43.37</v>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
@@ -806,25 +806,25 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>106</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>102</v>
-      </c>
       <c r="H8" s="4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>44.11</v>
+        <v>44.25</v>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
@@ -850,25 +850,25 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>44.02</v>
+        <v>43.37</v>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
